--- a/migforecasting/cities17-18/7/d7.xlsx
+++ b/migforecasting/cities17-18/7/d7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\cities17-18\7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="152">
   <si>
     <t>2017</t>
   </si>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t>торговля</t>
+  </si>
+  <si>
+    <t>ввод</t>
   </si>
 </sst>
 </file>
@@ -863,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="M71" sqref="M71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,15 +888,9 @@
       <c r="E1" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -1872,6 +1869,9 @@
       <c r="A66" s="2">
         <f t="shared" si="0"/>
         <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>151</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
